--- a/invoices_functions/files/invoices/so_invoices1.xlsx
+++ b/invoices_functions/files/invoices/so_invoices1.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2815221</t>
+          <t>SO3002384</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2802799</t>
+          <t>SO2934646</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2841187</t>
+          <t>SO2880086</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2797850</t>
+          <t>SO2886864</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2819580</t>
+          <t>SO2880415</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2815225</t>
+          <t>SO2880040</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2814562</t>
+          <t>SO2896584</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2835937</t>
+          <t>SO2905020</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2797492</t>
+          <t>SO2962295</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2835941</t>
+          <t>SO2939847</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2803277</t>
+          <t>SO2895264</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2845150</t>
+          <t>SO2940382</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2803282</t>
+          <t>SO2938563</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2836303</t>
+          <t>SO2939095</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2824553</t>
+          <t>SO2879437</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2858663</t>
+          <t>SO2952117</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2835031</t>
+          <t>SO2908799</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2832395</t>
+          <t>SO2883653</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2816414</t>
+          <t>SO2882757</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2796932</t>
+          <t>SO2957445</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2797684</t>
+          <t>SO2909473</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2854274</t>
+          <t>SO2944375</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2807226</t>
+          <t>SO2894429</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2822254</t>
+          <t>SO2961575</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2807978</t>
+          <t>SO2896878</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2840269</t>
+          <t>SO2934645</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2815492</t>
+          <t>SO2904811</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2821299</t>
+          <t>SO2895648</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2793954</t>
+          <t>SO2966768</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2813999</t>
+          <t>SO2941847</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2826134</t>
+          <t>SO2972451</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2832094</t>
+          <t>SO2880039</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2827871</t>
+          <t>SO2892911</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2818379</t>
+          <t>SO2931941</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2811614</t>
+          <t>SO2898675</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2814331</t>
+          <t>SO2960144</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2812988</t>
+          <t>SO2966599</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2819426</t>
+          <t>SO2936523</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2833285</t>
+          <t>SO2934527</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2847015</t>
+          <t>SO2969251</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2838659</t>
+          <t>SO2982358</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2836885</t>
+          <t>SO2985860</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2835785</t>
+          <t>SO2941638</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2799847</t>
+          <t>SO2954953</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2826202</t>
+          <t>SO2943143</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2852503</t>
+          <t>SO2911237</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2805724</t>
+          <t>SO2947727</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2798898</t>
+          <t>SO2989228</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2837710</t>
+          <t>SO2949539</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2793115</t>
+          <t>SO2963172</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2796265</t>
+          <t>SO2888301</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2823728</t>
+          <t>SO2955987</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2808231</t>
+          <t>SO2959768</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2807798</t>
+          <t>SO2938564</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2809081</t>
+          <t>SO2991511</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2795290</t>
+          <t>SO3000459</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2799044</t>
+          <t>SO2939477</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2791789</t>
+          <t>SO2932575</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2799653</t>
+          <t>SO2968616</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2812844</t>
+          <t>SO2893567</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2827356</t>
+          <t>SO2935484</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2849410</t>
+          <t>SO2935141</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2822195</t>
+          <t>SO3006125</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2804067</t>
+          <t>SO2982297</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2807386</t>
+          <t>SO2891780</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2848200</t>
+          <t>SO2977501</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2813596</t>
+          <t>SO2927004</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2842956</t>
+          <t>SO2957739</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2807637</t>
+          <t>SO2955729</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2800325</t>
+          <t>SO2965005</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2823106</t>
+          <t>SO2986117</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2862173</t>
+          <t>SO2933359</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2844581</t>
+          <t>SO2895551</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2824407</t>
+          <t>SO2965430</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2847036</t>
+          <t>SO2953109</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2832305</t>
+          <t>SO2928470</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2844202</t>
+          <t>SO2954035</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2831053</t>
+          <t>SO2935111</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2798458</t>
+          <t>SO2898298</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2817080</t>
+          <t>SO2878979</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2820564</t>
+          <t>SO2944667</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2796147</t>
+          <t>SO2972288</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2850973</t>
+          <t>SO2951140</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2822674</t>
+          <t>SO2965222</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2857927</t>
+          <t>SO2944880</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2801305</t>
+          <t>SO2999552</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2796636</t>
+          <t>SO2908960</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2798794</t>
+          <t>SO2995087</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2820108</t>
+          <t>SO2934658</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2806427</t>
+          <t>SO2959171</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2801413</t>
+          <t>SO2941164</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2846428</t>
+          <t>SO2938974</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2808803</t>
+          <t>SO2985765</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2801621</t>
+          <t>SO2996685</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2823478</t>
+          <t>SO2846385</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2802453</t>
+          <t>SO2949034</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2842558</t>
+          <t>SO2940224</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2801789</t>
+          <t>SO2965731</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2835472</t>
+          <t>SO2966067</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2801161</t>
+          <t>SO2896461</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2813018</t>
+          <t>SO2936593</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2831842</t>
+          <t>SO2937417</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2818728</t>
+          <t>SO2947489</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2802737</t>
+          <t>SO2878068</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2837209</t>
+          <t>SO2967976</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2795492</t>
+          <t>SO2998507</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2797928</t>
+          <t>SO2882845</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2820038</t>
+          <t>SO2909431</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2830224</t>
+          <t>SO2928372</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2842462</t>
+          <t>SO2956960</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2803795</t>
+          <t>SO2961462</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2822072</t>
+          <t>SO2939849</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2805629</t>
+          <t>SO2899045</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2804254</t>
+          <t>SO2987856</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2809323</t>
+          <t>SO2983626</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2833288</t>
+          <t>SO2996648</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2807368</t>
+          <t>SO2993149</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2803768</t>
+          <t>SO2883142</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2800076</t>
+          <t>SO2998914</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2797137</t>
+          <t>SO2937131</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2796160</t>
+          <t>SO2964686</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2813631</t>
+          <t>SO2986407</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2816867</t>
+          <t>SO2966670</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2808787</t>
+          <t>SO2994356</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2833821</t>
+          <t>SO2996208</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2827959</t>
+          <t>SO2962821</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2794285</t>
+          <t>SO2884774</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2809480</t>
+          <t>SO2954085</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2836622</t>
+          <t>SO2952748</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2831963</t>
+          <t>SO2881716</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2817146</t>
+          <t>SO2965819</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2815777</t>
+          <t>SO2904845</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2820858</t>
+          <t>SO2933647</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2796831</t>
+          <t>SO2932771</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2826413</t>
+          <t>SO2965525</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2834958</t>
+          <t>SO2929580</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2826871</t>
+          <t>SO2935517</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2816462</t>
+          <t>SO2967536</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2818453</t>
+          <t>SO2879375</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2825934</t>
+          <t>SO2941936</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2813633</t>
+          <t>SO2880203</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2851797</t>
+          <t>SO2878603</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2813716</t>
+          <t>SO2943744</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2795813</t>
+          <t>SO2938222</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2805301</t>
+          <t>SO2888478</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2800297</t>
+          <t>SO2965834</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2812360</t>
+          <t>SO2931533</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2794685</t>
+          <t>SO2933632</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2797793</t>
+          <t>SO2938159</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2806010</t>
+          <t>SO2895915</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2788804</t>
+          <t>SO2894446</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2841195</t>
+          <t>SO2910809</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2807793</t>
+          <t>SO2879753</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2832382</t>
+          <t>SO2991834</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2826042</t>
+          <t>SO2975435</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2821233</t>
+          <t>SO2882857</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2807388</t>
+          <t>SO2908852</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2822076</t>
+          <t>SO2882029</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2813546</t>
+          <t>SO2880414</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2832383</t>
+          <t>SO2878359</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2783816</t>
+          <t>SO2877912</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2801297</t>
+          <t>SO2877930</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2860738</t>
+          <t>SO2877922</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2860629</t>
+          <t>SO2882279</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2785440</t>
+          <t>SO2966238</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2792502</t>
+          <t>SO2883192</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2784829</t>
+          <t>SO2877944</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2812346</t>
+          <t>SO2878032</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2805862</t>
+          <t>SO2878034</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2794872</t>
+          <t>SO2878109</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2799846</t>
+          <t>SO2878312</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2817087</t>
+          <t>SO2878304</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2814045</t>
+          <t>SO2883193</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2787245</t>
+          <t>SO2878967</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2804293</t>
+          <t>SO2878980</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2836828</t>
+          <t>SO2879177</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2811042</t>
+          <t>SO2879358</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2795409</t>
+          <t>SO2879217</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2815151</t>
+          <t>SO2879303</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2788739</t>
+          <t>SO2879360</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2791695</t>
+          <t>SO2879575</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2813142</t>
+          <t>SO2879425</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2855053</t>
+          <t>SO2879448</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2790206</t>
+          <t>SO2879546</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2799070</t>
+          <t>SO2879586</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2820120</t>
+          <t>SO2879686</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2813071</t>
+          <t>SO2879674</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2791298</t>
+          <t>SO2963735</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2791299</t>
+          <t>SO2880060</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2793808</t>
+          <t>SO2880091</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2820045</t>
+          <t>SO2880127</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2791459</t>
+          <t>SO2880438</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2800979</t>
+          <t>SO2880501</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2791431</t>
+          <t>SO2904868</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2791440</t>
+          <t>SO2880546</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2798880</t>
+          <t>SO2963954</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2791514</t>
+          <t>SO2880954</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2791593</t>
+          <t>SO2881476</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2791566</t>
+          <t>SO2881141</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2791640</t>
+          <t>SO2952381</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2791751</t>
+          <t>SO2881197</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2813632</t>
+          <t>SO2881626</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2795086</t>
+          <t>SO2881537</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2791747</t>
+          <t>SO2881648</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2792357</t>
+          <t>SO2883652</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2791950</t>
+          <t>SO2881910</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2795493</t>
+          <t>SO2899724</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2792056</t>
+          <t>SO2881861</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2793781</t>
+          <t>SO2882359</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2800282</t>
+          <t>SO2882061</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2792095</t>
+          <t>SO2882079</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2792097</t>
+          <t>SO2882080</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2792159</t>
+          <t>SO2974761</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2792331</t>
+          <t>SO2882146</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2792404</t>
+          <t>SO2882211</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2792407</t>
+          <t>SO2882233</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2792628</t>
+          <t>SO2882376</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2792580</t>
+          <t>SO2888254</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2792651</t>
+          <t>SO2885064</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2793034</t>
+          <t>SO2882447</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2792663</t>
+          <t>SO2882408</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2837303</t>
+          <t>SO2882571</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2792784</t>
+          <t>SO2882623</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2792786</t>
+          <t>SO2882741</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2806657</t>
+          <t>SO2882988</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2792980</t>
+          <t>SO2882987</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2792891</t>
+          <t>SO2882950</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2793071</t>
+          <t>SO2883007</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2793888</t>
+          <t>SO2883129</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2793234</t>
+          <t>SO2883212</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2793276</t>
+          <t>SO2883598</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2793365</t>
+          <t>SO2897723</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2793320</t>
+          <t>SO2883505</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2800031</t>
+          <t>SO2967891</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2793517</t>
+          <t>SO2963878</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2793544</t>
+          <t>SO2883504</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2794721</t>
+          <t>SO3001722</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2793568</t>
+          <t>SO2883817</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2812978</t>
+          <t>SO2883906</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2793640</t>
+          <t>SO2996470</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2799983</t>
+          <t>SO2950225</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2793833</t>
+          <t>SO2884107</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2793955</t>
+          <t>SO2884151</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2796717</t>
+          <t>SO2884205</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2793910</t>
+          <t>SO2884280</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2796397</t>
+          <t>SO2884434</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2796368</t>
+          <t>SO2884506</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2793951</t>
+          <t>SO2884619</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2799520</t>
+          <t>SO2886579</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2794178</t>
+          <t>SO2884826</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2798997</t>
+          <t>SO2885190</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2797472</t>
+          <t>SO2885952</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2794355</t>
+          <t>SO2885178</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2794335</t>
+          <t>SO2885224</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2800050</t>
+          <t>SO2885209</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2794385</t>
+          <t>SO2885367</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2796915</t>
+          <t>SO2885386</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2794431</t>
+          <t>SO2885505</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2794481</t>
+          <t>SO2885531</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2794625</t>
+          <t>SO2885577</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2795032</t>
+          <t>SO2885608</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2796642</t>
+          <t>SO2946841</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2794459</t>
+          <t>SO2885769</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2794505</t>
+          <t>SO2885821</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2794642</t>
+          <t>SO2887907</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2794622</t>
+          <t>SO2885933</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2797362</t>
+          <t>SO2885896</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2794719</t>
+          <t>SO2885920</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2794722</t>
+          <t>SO2885986</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2794735</t>
+          <t>SO2976876</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2794765</t>
+          <t>SO2886037</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2794827</t>
+          <t>SO2886233</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2798889</t>
+          <t>SO2886249</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2795034</t>
+          <t>SO2886288</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2795041</t>
+          <t>SO2969767</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2795035</t>
+          <t>SO2935394</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2795134</t>
+          <t>SO2930310</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2795036</t>
+          <t>SO2886626</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2795120</t>
+          <t>SO2887056</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2795192</t>
+          <t>SO2887157</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2795252</t>
+          <t>SO2887198</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2795248</t>
+          <t>SO2887347</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2795332</t>
+          <t>SO2887368</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2795249</t>
+          <t>SO2932192</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2795353</t>
+          <t>SO2887576</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2795352</t>
+          <t>SO2887575</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2795461</t>
+          <t>SO2887803</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2795407</t>
+          <t>SO2983350</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2795425</t>
+          <t>SO2887929</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2795460</t>
+          <t>SO2887943</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2795495</t>
+          <t>SO2888080</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2795660</t>
+          <t>SO2888134</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2795489</t>
+          <t>SO2888160</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2822494</t>
+          <t>SO2938290</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2795517</t>
+          <t>SO2989929</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2795540</t>
+          <t>SO2888369</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2825458</t>
+          <t>SO2888479</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2795577</t>
+          <t>SO2888554</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2796887</t>
+          <t>SO2968693</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2795703</t>
+          <t>SO2888854</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2836835</t>
+          <t>SO2964513</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2795644</t>
+          <t>SO2888973</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2795927</t>
+          <t>SO2888948</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2795643</t>
+          <t>SO2992573</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2795773</t>
+          <t>SO2889106</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2799288</t>
+          <t>SO2968411</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2795834</t>
+          <t>SO2889218</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2795907</t>
+          <t>SO2889553</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2795901</t>
+          <t>SO2894800</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2795936</t>
+          <t>SO2889598</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2795947</t>
+          <t>SO2890711</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2803746</t>
+          <t>SO2934508</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2795961</t>
+          <t>SO2938731</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2796109</t>
+          <t>SO2889995</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2796118</t>
+          <t>SO2890253</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2796203</t>
+          <t>SO2952735</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2796076</t>
+          <t>SO2890746</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2796190</t>
+          <t>SO2890762</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2850700</t>
+          <t>SO2891095</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2796228</t>
+          <t>SO2891205</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2797563</t>
+          <t>SO2891299</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2796315</t>
+          <t>SO2891792</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2796812</t>
+          <t>SO2892356</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2796395</t>
+          <t>SO2892330</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2796434</t>
+          <t>SO2892780</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2796396</t>
+          <t>SO2892867</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2796461</t>
+          <t>SO2893228</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2796373</t>
+          <t>SO2893345</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2796522</t>
+          <t>SO2893415</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2796432</t>
+          <t>SO2893461</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2796544</t>
+          <t>SO2893817</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2804360</t>
+          <t>SO2897344</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2796639</t>
+          <t>SO2894096</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2796701</t>
+          <t>SO2894142</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2807520</t>
+          <t>SO2894224</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2796660</t>
+          <t>SO2894249</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2796734</t>
+          <t>SO2894492</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2796678</t>
+          <t>SO2899100</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2796845</t>
+          <t>SO2894827</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2796733</t>
+          <t>SO2894782</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2796785</t>
+          <t>SO2894777</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2796708</t>
+          <t>SO2895172</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2796787</t>
+          <t>SO2895143</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2799619</t>
+          <t>SO2952491</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2796813</t>
+          <t>SO2994483</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2812923</t>
+          <t>SO2895191</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2797305</t>
+          <t>SO2895279</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2797031</t>
+          <t>SO2895490</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2796961</t>
+          <t>SO2895572</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2797008</t>
+          <t>SO2895571</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2797065</t>
+          <t>SO2897631</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2799168</t>
+          <t>SO2896328</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2797119</t>
+          <t>SO2936046</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2797079</t>
+          <t>SO2895847</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2797624</t>
+          <t>SO2895833</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2797206</t>
+          <t>SO2897339</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2797361</t>
+          <t>SO2895879</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2797247</t>
+          <t>SO2895951</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2797304</t>
+          <t>SO2895955</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2797310</t>
+          <t>SO2896091</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2797394</t>
+          <t>SO2896194</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2797430</t>
+          <t>SO2896267</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2800945</t>
+          <t>SO2896363</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2797432</t>
+          <t>SO2896330</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2797493</t>
+          <t>SO2896329</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2797490</t>
+          <t>SO2896347</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2798808</t>
+          <t>SO2896503</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2797598</t>
+          <t>SO2896502</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2797687</t>
+          <t>SO2948086</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2797649</t>
+          <t>SO2896622</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2815245</t>
+          <t>SO2897128</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2799592</t>
+          <t>SO2896641</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2797788</t>
+          <t>SO2896652</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2797873</t>
+          <t>SO2998778</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2797943</t>
+          <t>SO2896639</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2798047</t>
+          <t>SO2896635</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2797991</t>
+          <t>SO2962564</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2798061</t>
+          <t>SO2896706</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2798131</t>
+          <t>SO2896750</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2798438</t>
+          <t>SO2896797</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2846176</t>
+          <t>SO2896814</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2798234</t>
+          <t>SO2896859</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2798277</t>
+          <t>SO2896858</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2798250</t>
+          <t>SO2896832</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2798260</t>
+          <t>SO2896833</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2798262</t>
+          <t>SO2896889</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2799454</t>
+          <t>SO2985855</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2798329</t>
+          <t>SO2896996</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2798432</t>
+          <t>SO2896994</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2798420</t>
+          <t>SO2897175</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2801453</t>
+          <t>SO2897063</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2798459</t>
+          <t>SO2897114</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2799134</t>
+          <t>SO2898654</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2798391</t>
+          <t>SO2904736</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2798591</t>
+          <t>SO2897258</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2798486</t>
+          <t>SO2897276</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2798666</t>
+          <t>SO2897318</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2798548</t>
+          <t>SO2897340</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2801165</t>
+          <t>SO2897338</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2798655</t>
+          <t>SO2897336</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2799126</t>
+          <t>SO2897364</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2798616</t>
+          <t>SO2949407</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2798635</t>
+          <t>SO2897478</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2798708</t>
+          <t>SO2897591</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2798707</t>
+          <t>SO2897544</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2798677</t>
+          <t>SO2897541</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2798718</t>
+          <t>SO2897556</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2798770</t>
+          <t>SO2897594</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2798772</t>
+          <t>SO2897628</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2798769</t>
+          <t>SO2897716</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2798893</t>
+          <t>SO2897626</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2798892</t>
+          <t>SO2897714</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2798833</t>
+          <t>SO2897823</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2798896</t>
+          <t>SO2909379</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2798895</t>
+          <t>SO2897832</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2798897</t>
+          <t>SO2897869</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2798890</t>
+          <t>SO2897933</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2798954</t>
+          <t>SO2897970</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2798969</t>
+          <t>SO2897950</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2798953</t>
+          <t>SO2897973</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2798976</t>
+          <t>SO2897952</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2799155</t>
+          <t>SO2898005</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2798991</t>
+          <t>SO2897989</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2799179</t>
+          <t>SO2898327</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2800620</t>
+          <t>SO2898051</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2799125</t>
+          <t>SO2983268</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2799606</t>
+          <t>SO2898135</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2799178</t>
+          <t>SO2898160</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2799251</t>
+          <t>SO2942340</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2799228</t>
+          <t>SO2956438</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2799206</t>
+          <t>SO2898229</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2799794</t>
+          <t>SO2898186</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2799273</t>
+          <t>SO2898208</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2799304</t>
+          <t>SO2898210</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2799332</t>
+          <t>SO2898206</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2799252</t>
+          <t>SO2898265</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2825696</t>
+          <t>SO2898296</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2799395</t>
+          <t>SO2898349</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2799334</t>
+          <t>SO2898324</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2799369</t>
+          <t>SO2898392</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2799443</t>
+          <t>SO2898391</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2799408</t>
+          <t>SO2898401</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2799417</t>
+          <t>SO2898364</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2799430</t>
+          <t>SO2898423</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2799517</t>
+          <t>SO2898422</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2799513</t>
+          <t>SO2898448</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2799516</t>
+          <t>SO2898484</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2799518</t>
+          <t>SO2939110</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2799576</t>
+          <t>SO2898513</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2799560</t>
+          <t>SO2898492</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2799495</t>
+          <t>SO2898538</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2799577</t>
+          <t>SO2898580</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2799589</t>
+          <t>SO2898485</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2799590</t>
+          <t>SO2898671</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2800713</t>
+          <t>SO2898739</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2799617</t>
+          <t>SO2898740</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2799673</t>
+          <t>SO2898801</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2799714</t>
+          <t>SO2898834</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2799754</t>
+          <t>SO2898836</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2800178</t>
+          <t>SO2899095</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2799796</t>
+          <t>SO2898842</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2799881</t>
+          <t>SO2898881</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2802554</t>
+          <t>SO2898921</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2799835</t>
+          <t>SO2898922</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2800595</t>
+          <t>SO2899037</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2799885</t>
+          <t>SO2898966</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2801991</t>
+          <t>SO2899006</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2799923</t>
+          <t>SO2986717</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2799921</t>
+          <t>SO2899147</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2855617</t>
+          <t>SO2899167</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2799987</t>
+          <t>SO2899245</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2800012</t>
+          <t>SO2899248</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2800043</t>
+          <t>SO2899264</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2800099</t>
+          <t>SO2899444</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2800115</t>
+          <t>SO2899416</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2800098</t>
+          <t>SO2899451</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2800164</t>
+          <t>SO2899521</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2804434</t>
+          <t>SO2951120</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2800165</t>
+          <t>SO2899518</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2800245</t>
+          <t>SO2899557</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2800240</t>
+          <t>SO2899576</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2800283</t>
+          <t>SO2899591</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2801323</t>
+          <t>SO2899683</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2817913</t>
+          <t>SO2900064</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2800295</t>
+          <t>SO2899662</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2800293</t>
+          <t>SO2899687</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2800324</t>
+          <t>SO2899650</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2800358</t>
+          <t>SO2899725</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2800362</t>
+          <t>SO2899766</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2809872</t>
+          <t>SO2899743</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2800646</t>
+          <t>SO2899803</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2811167</t>
+          <t>SO2899862</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2800421</t>
+          <t>SO2899886</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2800592</t>
+          <t>SO2899882</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2800522</t>
+          <t>SO2900505</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2800621</t>
+          <t>SO2936385</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2800582</t>
+          <t>SO2941614</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2800594</t>
+          <t>SO2942754</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2800593</t>
+          <t>SO2909628</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2800680</t>
+          <t>SO2951130</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2808647</t>
+          <t>SO2946740</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2800580</t>
+          <t>SO2904674</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2800681</t>
+          <t>SO2904673</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2800664</t>
+          <t>SO2904706</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2800723</t>
+          <t>SO2904658</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2800878</t>
+          <t>SO2904732</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2800752</t>
+          <t>SO2904702</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2800782</t>
+          <t>SO2904810</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2800906</t>
+          <t>SO2904851</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2800764</t>
+          <t>SO2904769</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2800774</t>
+          <t>SO2904833</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2801668</t>
+          <t>SO2904832</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2800775</t>
+          <t>SO2904842</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2800846</t>
+          <t>SO2951711</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2800845</t>
+          <t>SO2904937</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2800877</t>
+          <t>SO2904852</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2800908</t>
+          <t>SO2904930</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2800980</t>
+          <t>SO2904958</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2833107</t>
+          <t>SO2904985</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2801083</t>
+          <t>SO2905293</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2801025</t>
+          <t>SO2908999</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2801142</t>
+          <t>SO2910790</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2801484</t>
+          <t>SO2910969</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2801348</t>
+          <t>SO2909592</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2801127</t>
+          <t>SO2940434</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2805341</t>
+          <t>SO2974663</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2801191</t>
+          <t>SO2946242</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2801268</t>
+          <t>SO2936362</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2803898</t>
+          <t>SO2909334</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2801356</t>
+          <t>SO3007177</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2802411</t>
+          <t>SO2908564</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2804965</t>
+          <t>SO2908563</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2801290</t>
+          <t>SO2908556</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2801306</t>
+          <t>SO2908582</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2801347</t>
+          <t>SO2908614</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2801371</t>
+          <t>SO2908611</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2801334</t>
+          <t>SO2908662</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2813728</t>
+          <t>SO2908695</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2801394</t>
+          <t>SO2908677</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2801382</t>
+          <t>SO2908681</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2801473</t>
+          <t>SO2908696</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2812308</t>
+          <t>SO2908789</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2801448</t>
+          <t>SO2908760</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2801449</t>
+          <t>SO2908694</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2801447</t>
+          <t>SO2908707</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2801472</t>
+          <t>SO2908773</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2845387</t>
+          <t>SO2908771</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2801673</t>
+          <t>SO2908739</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2801656</t>
+          <t>SO2909072</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2801968</t>
+          <t>SO2908793</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2801690</t>
+          <t>SO2908871</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2801704</t>
+          <t>SO2908873</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2801705</t>
+          <t>SO2908938</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2801728</t>
+          <t>SO2908939</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2803178</t>
+          <t>SO2975049</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2828775</t>
+          <t>SO2908996</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2801759</t>
+          <t>SO2910120</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2830477</t>
+          <t>SO2909254</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2802233</t>
+          <t>SO2909250</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2801832</t>
+          <t>SO2909253</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2802009</t>
+          <t>SO2909541</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2835953</t>
+          <t>SO2909299</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2801966</t>
+          <t>SO2909333</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2802065</t>
+          <t>SO2909347</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2802042</t>
+          <t>SO2980331</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2802010</t>
+          <t>SO2909429</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2801898</t>
+          <t>SO2909449</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2801942</t>
+          <t>SO2909571</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2802404</t>
+          <t>SO2909569</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2802206</t>
+          <t>SO2909591</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2802078</t>
+          <t>SO2909627</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2805104</t>
+          <t>SO2909721</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2802134</t>
+          <t>SO2909740</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2803080</t>
+          <t>SO2973109</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2802088</t>
+          <t>SO2910057</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2802086</t>
+          <t>SO2910257</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2802179</t>
+          <t>SO2911203</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2802320</t>
+          <t>SO2910234</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2802345</t>
+          <t>SO2910306</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2802232</t>
+          <t>SO2910348</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2802409</t>
+          <t>SO2910401</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2802275</t>
+          <t>SO2910338</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2802273</t>
+          <t>SO2910448</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2810828</t>
+          <t>SO2910435</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2802410</t>
+          <t>SO2910434</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2802340</t>
+          <t>SO2910443</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2802408</t>
+          <t>SO2910519</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2802342</t>
+          <t>SO2910517</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2802406</t>
+          <t>SO2910564</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2802364</t>
+          <t>SO2910565</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2809565</t>
+          <t>SO2910637</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2802403</t>
+          <t>SO2910610</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2802430</t>
+          <t>SO2910675</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2802521</t>
+          <t>SO2910754</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2802452</t>
+          <t>SO2940455</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2802473</t>
+          <t>SO2910806</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2805108</t>
+          <t>SO2910883</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2802583</t>
+          <t>SO2910953</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2802928</t>
+          <t>SO2910909</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2802552</t>
+          <t>SO2910986</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2802553</t>
+          <t>SO2910996</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2802643</t>
+          <t>SO2911033</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2802529</t>
+          <t>SO2911125</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2802645</t>
+          <t>SO2911154</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2802584</t>
+          <t>SO2911124</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2802703</t>
+          <t>SO2911191</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2802609</t>
+          <t>SO2911188</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2802630</t>
+          <t>SO2911187</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2802601</t>
+          <t>SO2911355</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2802610</t>
+          <t>SO2911285</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2802639</t>
+          <t>SO2911322</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2802679</t>
+          <t>SO2911348</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2802663</t>
+          <t>SO2911478</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2802661</t>
+          <t>SO2911463</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2802644</t>
+          <t>SO2911560</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2802780</t>
+          <t>SO2911568</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2802801</t>
+          <t>SO2911583</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2802739</t>
+          <t>SO2946125</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2802702</t>
+          <t>SO3005570</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2802706</t>
+          <t>SO2942549</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2802744</t>
+          <t>SO2999550</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2805132</t>
+          <t>SO2945872</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2802785</t>
+          <t>SO2955246</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2803028</t>
+          <t>SO2963542</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2804512</t>
+          <t>SO2938773</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2805111</t>
+          <t>SO2968893</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2802820</t>
+          <t>SO2915991</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2802822</t>
+          <t>SO2978666</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2802892</t>
+          <t>SO2947877</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2802927</t>
+          <t>SO2962949</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2802891</t>
+          <t>SO2946655</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2808124</t>
+          <t>SO2991823</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2802921</t>
+          <t>SO2977013</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2802938</t>
+          <t>SO2969167</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2821076</t>
+          <t>SO2954190</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2802941</t>
+          <t>SO2956869</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2802956</t>
+          <t>SO2967538</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2802949</t>
+          <t>SO2962127</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2803188</t>
+          <t>SO2933476</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2802976</t>
+          <t>SO2994115</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2803010</t>
+          <t>SO2928560</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2803029</t>
+          <t>SO2931907</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2803027</t>
+          <t>SO2961738</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2803051</t>
+          <t>SO2929357</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2823843</t>
+          <t>SO2934742</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2805638</t>
+          <t>SO2924868</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2803157</t>
+          <t>SO2967951</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2803093</t>
+          <t>SO2922445</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2803134</t>
+          <t>SO2922471</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2803133</t>
+          <t>SO2930783</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2803132</t>
+          <t>SO2932995</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2805951</t>
+          <t>SO2938199</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2803187</t>
+          <t>SO2980434</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2803190</t>
+          <t>SO2951014</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2803719</t>
+          <t>SO2923171</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2803256</t>
+          <t>SO2927879</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2803368</t>
+          <t>SO2935593</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2803354</t>
+          <t>SO2924299</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2803322</t>
+          <t>SO2924527</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2803278</t>
+          <t>SO2933025</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2803280</t>
+          <t>SO2945623</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2803321</t>
+          <t>SO2958093</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2803490</t>
+          <t>SO2925006</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2803433</t>
+          <t>SO2925285</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2803515</t>
+          <t>SO2925468</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2827765</t>
+          <t>SO2925516</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2803395</t>
+          <t>SO2926001</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2803344</t>
+          <t>SO2967116</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2804188</t>
+          <t>SO2926507</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2804186</t>
+          <t>SO2934676</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2803780</t>
+          <t>SO2930298</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2803472</t>
+          <t>SO2985593</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2803477</t>
+          <t>SO2950693</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2803907</t>
+          <t>SO2926692</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2803568</t>
+          <t>SO2926717</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2803569</t>
+          <t>SO2926877</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2805850</t>
+          <t>SO2962526</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2803606</t>
+          <t>SO2928311</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2803572</t>
+          <t>SO2938841</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2807521</t>
+          <t>SO2927157</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2803683</t>
+          <t>SO2927284</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2803638</t>
+          <t>SO2927359</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2836727</t>
+          <t>SO2927732</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2803654</t>
+          <t>SO2928116</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2806749</t>
+          <t>SO2929540</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2803736</t>
+          <t>SO2927892</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2803708</t>
+          <t>SO2932928</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2805489</t>
+          <t>SO2928071</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2803787</t>
+          <t>SO2928171</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2803774</t>
+          <t>SO2930847</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2803906</t>
+          <t>SO2928450</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2805093</t>
+          <t>SO2935531</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2803846</t>
+          <t>SO2928610</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2803884</t>
+          <t>SO3006886</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2805120</t>
+          <t>SO2928681</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2803905</t>
+          <t>SO2928798</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2834125</t>
+          <t>SO2928680</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2803951</t>
+          <t>SO2928945</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2803991</t>
+          <t>SO2928994</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2804066</t>
+          <t>SO2929023</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2804346</t>
+          <t>SO2929279</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2804015</t>
+          <t>SO2929244</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2805492</t>
+          <t>SO2929310</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2804016</t>
+          <t>SO2929401</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2804107</t>
+          <t>SO2929424</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2804128</t>
+          <t>SO2930241</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2804205</t>
+          <t>SO2929696</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2804151</t>
+          <t>SO2929512</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2804966</t>
+          <t>SO2929577</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2804274</t>
+          <t>SO2929631</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2804280</t>
+          <t>SO2929651</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2804365</t>
+          <t>SO2929697</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2808701</t>
+          <t>SO2929676</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2804366</t>
+          <t>SO2929699</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2824554</t>
+          <t>SO2929877</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2804390</t>
+          <t>SO2931378</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2804401</t>
+          <t>SO2929857</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2804387</t>
+          <t>SO2932548</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2804746</t>
+          <t>SO2938540</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2804463</t>
+          <t>SO2929975</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2804511</t>
+          <t>SO2930072</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2804553</t>
+          <t>SO2930144</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2804555</t>
+          <t>SO2930145</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2805687</t>
+          <t>SO2930330</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2804572</t>
+          <t>SO2930964</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2804727</t>
+          <t>SO2930495</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2804623</t>
+          <t>SO2930574</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2804729</t>
+          <t>SO2930656</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2804625</t>
+          <t>SO2930701</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2804627</t>
+          <t>SO2930723</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2804728</t>
+          <t>SO2930835</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2804900</t>
+          <t>SO2930849</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2804655</t>
+          <t>SO2930841</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2804747</t>
+          <t>SO2930848</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2804772</t>
+          <t>SO2930852</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2841698</t>
+          <t>SO2930908</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2804769</t>
+          <t>SO2933117</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2804789</t>
+          <t>SO2931056</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2804866</t>
+          <t>SO2931070</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2804787</t>
+          <t>SO2930993</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2812287</t>
+          <t>SO2931024</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2805262</t>
+          <t>SO2947125</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2804790</t>
+          <t>SO2931087</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2804823</t>
+          <t>SO2931074</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2806091</t>
+          <t>SO2947054</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2804914</t>
+          <t>SO2936989</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2804967</t>
+          <t>SO2931185</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2805029</t>
+          <t>SO2931172</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2804940</t>
+          <t>SO2931186</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2805056</t>
+          <t>SO2931196</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2805073</t>
+          <t>SO2931195</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2805054</t>
+          <t>SO2931229</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2805040</t>
+          <t>SO2931270</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2805058</t>
+          <t>SO2961363</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2805051</t>
+          <t>SO2931360</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2805204</t>
+          <t>SO2931301</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2805095</t>
+          <t>SO2931292</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2805201</t>
+          <t>SO2931403</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2805287</t>
+          <t>SO2931346</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2823771</t>
+          <t>SO2931361</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2805395</t>
+          <t>SO2931393</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2805299</t>
+          <t>SO2931477</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2805285</t>
+          <t>SO2931426</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2805490</t>
+          <t>SO2931450</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2805357</t>
+          <t>SO2931449</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2805410</t>
+          <t>SO2931432</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2805311</t>
+          <t>SO2931527</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2805483</t>
+          <t>SO2931552</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2805484</t>
+          <t>SO2931532</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2805634</t>
+          <t>SO2989030</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2807556</t>
+          <t>SO2931582</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2805534</t>
+          <t>SO2931619</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2805512</t>
+          <t>SO2932528</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2848547</t>
+          <t>SO2931681</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2805578</t>
+          <t>SO2931696</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2807724</t>
+          <t>SO2931712</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2805637</t>
+          <t>SO2932796</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2805579</t>
+          <t>SO2931809</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2806348</t>
+          <t>SO2931864</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2805657</t>
+          <t>SO2931808</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2805767</t>
+          <t>SO2931830</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2805768</t>
+          <t>SO2931892</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2805656</t>
+          <t>SO2931903</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2805726</t>
+          <t>SO2932342</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2839536</t>
+          <t>SO2931951</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2805725</t>
+          <t>SO2964335</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2805671</t>
+          <t>SO2932002</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2805764</t>
+          <t>SO2931952</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2805861</t>
+          <t>SO2933171</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2805839</t>
+          <t>SO2932191</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2805851</t>
+          <t>SO2932201</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2805837</t>
+          <t>SO2932288</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2805886</t>
+          <t>SO2939816</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2805943</t>
+          <t>SO2965676</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2805944</t>
+          <t>SO2934583</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2805954</t>
+          <t>SO2933388</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2805941</t>
+          <t>SO2932536</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2805937</t>
+          <t>SO2932553</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2809735</t>
+          <t>SO2937304</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2805968</t>
+          <t>SO2932654</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2806034</t>
+          <t>SO2932710</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2806042</t>
+          <t>SO2932737</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2806032</t>
+          <t>SO2932732</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2806090</t>
+          <t>SO2932734</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2806101</t>
+          <t>SO2932748</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2806078</t>
+          <t>SO2932747</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2806054</t>
+          <t>SO2934524</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2806133</t>
+          <t>SO2933015</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2811069</t>
+          <t>SO2932808</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2806157</t>
+          <t>SO2932769</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2806202</t>
+          <t>SO2932810</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2806282</t>
+          <t>SO2932804</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2835435</t>
+          <t>SO2932877</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2806298</t>
+          <t>SO2932878</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2806283</t>
+          <t>SO2933016</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2809905</t>
+          <t>SO2989646</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2806305</t>
+          <t>SO2932853</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2806413</t>
+          <t>SO2932854</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2806458</t>
+          <t>SO2932876</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2806350</t>
+          <t>SO2932884</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2806457</t>
+          <t>SO2935103</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2806520</t>
+          <t>SO2932881</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2806519</t>
+          <t>SO2932893</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2806656</t>
+          <t>SO2933064</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2812416</t>
+          <t>SO2932955</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2807146</t>
+          <t>SO2933115</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2806624</t>
+          <t>SO2933051</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2806626</t>
+          <t>SO2933048</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2806563</t>
+          <t>SO2941872</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2806620</t>
+          <t>SO2933120</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2807188</t>
+          <t>SO2933212</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2806616</t>
+          <t>SO2933094</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2806846</t>
+          <t>SO2933119</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2807390</t>
+          <t>SO2933140</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2806750</t>
+          <t>SO2933163</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2806893</t>
+          <t>SO2933160</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2806792</t>
+          <t>SO2933147</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2809144</t>
+          <t>SO2953942</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2806794</t>
+          <t>SO2933172</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2806772</t>
+          <t>SO2933324</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2806771</t>
+          <t>SO2933192</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2806849</t>
+          <t>SO2933201</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2807087</t>
+          <t>SO2933353</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2816091</t>
+          <t>SO2933257</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2807876</t>
+          <t>SO2933258</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2807207</t>
+          <t>SO2933256</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2807086</t>
+          <t>SO2933318</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2831071</t>
+          <t>SO2933272</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2807084</t>
+          <t>SO2933389</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2807112</t>
+          <t>SO2933316</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2807211</t>
+          <t>SO2933304</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2807118</t>
+          <t>SO2933328</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2807560</t>
+          <t>SO2934413</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2807210</t>
+          <t>SO2933329</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2807149</t>
+          <t>SO2933373</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2807244</t>
+          <t>SO2936402</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2807148</t>
+          <t>SO2933419</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2807700</t>
+          <t>SO2933478</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2807275</t>
+          <t>SO2933554</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2807236</t>
+          <t>SO2933490</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2807278</t>
+          <t>SO2933501</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2807721</t>
+          <t>SO2933491</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2807304</t>
+          <t>SO2933514</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2807391</t>
+          <t>SO2933553</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2807334</t>
+          <t>SO2933556</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2807333</t>
+          <t>SO2933555</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2832212</t>
+          <t>SO2982888</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2807331</t>
+          <t>SO2933645</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2807495</t>
+          <t>SO2999150</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2807308</t>
+          <t>SO2935703</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2807367</t>
+          <t>SO2933628</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2807408</t>
+          <t>SO2933648</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2807434</t>
+          <t>SO2933710</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2807460</t>
+          <t>SO2933662</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2807519</t>
+          <t>SO2933709</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2807457</t>
+          <t>SO2933752</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2807523</t>
+          <t>SO2933784</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2807525</t>
+          <t>SO2933808</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2807559</t>
+          <t>SO2933896</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2807636</t>
+          <t>SO2933895</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2807723</t>
+          <t>SO2933929</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2807703</t>
+          <t>SO2937814</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2807601</t>
+          <t>SO2934266</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2807593</t>
+          <t>SO2934324</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2807583</t>
+          <t>SO2934323</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2807631</t>
+          <t>SO2934310</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2807707</t>
+          <t>SO2934303</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2807713</t>
+          <t>SO2934313</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2807715</t>
+          <t>SO2934354</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2807951</t>
+          <t>SO2934436</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2807819</t>
+          <t>SO2934416</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2807806</t>
+          <t>SO2936177</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2807899</t>
+          <t>SO2934434</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2807834</t>
+          <t>SO2934472</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2809710</t>
+          <t>SO2934485</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2807831</t>
+          <t>SO2963853</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2807833</t>
+          <t>SO2934570</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2808645</t>
+          <t>SO2934526</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2807830</t>
+          <t>SO2934556</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2807867</t>
+          <t>SO2934585</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2842010</t>
+          <t>SO2934617</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2807994</t>
+          <t>SO2934642</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2808009</t>
+          <t>SO2934582</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2808027</t>
+          <t>SO2935202</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2808259</t>
+          <t>SO2934587</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2808053</t>
+          <t>SO2934586</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2808026</t>
+          <t>SO2934710</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2808120</t>
+          <t>SO2934624</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2809265</t>
+          <t>SO2938809</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2812115</t>
+          <t>SO2934659</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2808162</t>
+          <t>SO2934625</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2808279</t>
+          <t>SO2934623</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2808219</t>
+          <t>SO2936221</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2808334</t>
+          <t>SO2934643</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2808310</t>
+          <t>SO2934677</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2813959</t>
+          <t>SO2934794</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2808357</t>
+          <t>SO2934681</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2808361</t>
+          <t>SO2934768</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2808340</t>
+          <t>SO2935515</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2808362</t>
+          <t>SO2934773</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2808364</t>
+          <t>SO2934844</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2821079</t>
+          <t>SO2937852</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2808452</t>
+          <t>SO2935076</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2808476</t>
+          <t>SO2934845</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2808546</t>
+          <t>SO2934949</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2808545</t>
+          <t>SO2935035</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2808551</t>
+          <t>SO2977034</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2808600</t>
+          <t>SO2934813</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2808652</t>
+          <t>SO2934804</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2808589</t>
+          <t>SO2938053</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2808646</t>
+          <t>SO2934911</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2808644</t>
+          <t>SO2934934</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2808673</t>
+          <t>SO2934892</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2808847</t>
+          <t>SO2934965</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2829761</t>
+          <t>SO2934899</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2808793</t>
+          <t>SO2934903</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2809325</t>
+          <t>SO2976442</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2845349</t>
+          <t>SO2935033</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2811938</t>
+          <t>SO2934951</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2822497</t>
+          <t>SO2935034</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2808937</t>
+          <t>SO2935003</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2808964</t>
+          <t>SO2935112</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2809086</t>
+          <t>SO2936729</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2808984</t>
+          <t>SO2935094</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2809019</t>
+          <t>SO2935017</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2809078</t>
+          <t>SO2935093</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2809123</t>
+          <t>SO2935075</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2811858</t>
+          <t>SO2935160</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2809105</t>
+          <t>SO2936742</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2809241</t>
+          <t>SO2935157</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2809172</t>
+          <t>SO2939517</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2809159</t>
+          <t>SO2935163</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2809145</t>
+          <t>SO2935173</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2809239</t>
+          <t>SO2935277</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2809174</t>
+          <t>SO2935274</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2809134</t>
+          <t>SO2935209</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2809276</t>
+          <t>SO2939395</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2809238</t>
+          <t>SO2935344</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2809236</t>
+          <t>SO2935221</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2809234</t>
+          <t>SO2935147</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2809347</t>
+          <t>SO2935290</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2809437</t>
+          <t>SO2935248</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2809431</t>
+          <t>SO2935289</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2809432</t>
+          <t>SO2935324</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2809566</t>
+          <t>SO2935355</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2809479</t>
+          <t>SO2935313</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2809456</t>
+          <t>SO2935310</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2811056</t>
+          <t>SO2936485</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2809470</t>
+          <t>SO2935640</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2810177</t>
+          <t>SO2935400</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2809564</t>
+          <t>SO2935498</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2809499</t>
+          <t>SO2935417</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2809575</t>
+          <t>SO2935439</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2809621</t>
+          <t>SO2935411</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2809714</t>
+          <t>SO2936764</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2809711</t>
+          <t>SO2935514</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2809658</t>
+          <t>SO2935461</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2809713</t>
+          <t>SO2935491</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2809737</t>
+          <t>SO2935506</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2834144</t>
+          <t>SO2937090</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2809736</t>
+          <t>SO2935533</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2809726</t>
+          <t>SO2935530</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2809767</t>
+          <t>SO2935526</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2809777</t>
+          <t>SO2935592</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2809741</t>
+          <t>SO2935941</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2809765</t>
+          <t>SO2935615</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2815774</t>
+          <t>SO2935580</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2810340</t>
+          <t>SO2935667</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2809843</t>
+          <t>SO2935625</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2809906</t>
+          <t>SO2935594</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2809874</t>
+          <t>SO2935601</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2809877</t>
+          <t>SO2935614</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2809916</t>
+          <t>SO2935624</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2809941</t>
+          <t>SO2935668</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2810026</t>
+          <t>SO2935655</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2810029</t>
+          <t>SO2935692</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2810062</t>
+          <t>SO2935693</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2810087</t>
+          <t>SO2935710</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2810089</t>
+          <t>SO2937663</t>
         </is>
       </c>
     </row>

--- a/invoices_functions/files/invoices/so_invoices1.xlsx
+++ b/invoices_functions/files/invoices/so_invoices1.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO3002384</t>
+          <t>SO3143994</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2934646</t>
+          <t>SO3134861</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2880086</t>
+          <t>SO3079098</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2886864</t>
+          <t>SO3103510</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2880415</t>
+          <t>SO3083201</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2880040</t>
+          <t>SO3087057</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2896584</t>
+          <t>SO3093908</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2905020</t>
+          <t>SO3104162</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2962295</t>
+          <t>SO3110088</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2939847</t>
+          <t>SO3121487</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2895264</t>
+          <t>SO3083339</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2940382</t>
+          <t>SO3110529</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2938563</t>
+          <t>SO3079596</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2939095</t>
+          <t>SO3100398</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2879437</t>
+          <t>SO3089877</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2952117</t>
+          <t>SO3121582</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2908799</t>
+          <t>SO2974541</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2883653</t>
+          <t>SO3118118</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2882757</t>
+          <t>SO3122295</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2957445</t>
+          <t>SO3107296</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2909473</t>
+          <t>SO3099807</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2944375</t>
+          <t>SO3110971</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2894429</t>
+          <t>SO3102516</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2961575</t>
+          <t>SO3120863</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2896878</t>
+          <t>SO3097571</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2934645</t>
+          <t>SO3110721</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2904811</t>
+          <t>SO3142420</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2895648</t>
+          <t>SO3085910</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2966768</t>
+          <t>SO3116418</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2941847</t>
+          <t>SO3115656</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2972451</t>
+          <t>SO3095466</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2880039</t>
+          <t>SO3096858</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2892911</t>
+          <t>SO3090650</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2931941</t>
+          <t>SO3100871</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2898675</t>
+          <t>SO3122246</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2960144</t>
+          <t>SO3136262</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2966599</t>
+          <t>SO3096821</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2936523</t>
+          <t>SO3102118</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2934527</t>
+          <t>SO3135073</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2969251</t>
+          <t>SO3099097</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2982358</t>
+          <t>SO3127458</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2985860</t>
+          <t>SO3096346</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2941638</t>
+          <t>SO3094487</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2954953</t>
+          <t>SO3085929</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2943143</t>
+          <t>SO3089467</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2911237</t>
+          <t>SO3095544</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2947727</t>
+          <t>SO3089169</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2989228</t>
+          <t>SO3096922</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2949539</t>
+          <t>SO3087132</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2963172</t>
+          <t>SO3100478</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2888301</t>
+          <t>SO3095323</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2955987</t>
+          <t>SO3118883</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2959768</t>
+          <t>SO3094983</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2938564</t>
+          <t>SO3088076</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2991511</t>
+          <t>SO3097114</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO3000459</t>
+          <t>SO3083662</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2939477</t>
+          <t>SO3124444</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2932575</t>
+          <t>SO3100789</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2968616</t>
+          <t>SO3126252</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2893567</t>
+          <t>SO3095042</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2935484</t>
+          <t>SO3088804</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2935141</t>
+          <t>SO3096319</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO3006125</t>
+          <t>SO3120625</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2982297</t>
+          <t>SO3107735</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2891780</t>
+          <t>SO3084865</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2977501</t>
+          <t>SO3102828</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2927004</t>
+          <t>SO3115873</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2957739</t>
+          <t>SO3100623</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2955729</t>
+          <t>SO3085223</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2965005</t>
+          <t>SO2968925</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2986117</t>
+          <t>SO3125901</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2933359</t>
+          <t>SO3131382</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2895551</t>
+          <t>SO3102753</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2965430</t>
+          <t>SO3082290</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2953109</t>
+          <t>SO3096167</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2928470</t>
+          <t>SO3120060</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2954035</t>
+          <t>SO3095932</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2935111</t>
+          <t>SO3086800</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2898298</t>
+          <t>SO3086897</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2878979</t>
+          <t>SO2968413</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2944667</t>
+          <t>SO3103095</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2972288</t>
+          <t>SO3112687</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2951140</t>
+          <t>SO3092204</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2965222</t>
+          <t>SO3119297</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2944880</t>
+          <t>SO3104947</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2999552</t>
+          <t>SO3110139</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2908960</t>
+          <t>SO3088892</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2995087</t>
+          <t>SO3103466</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2934658</t>
+          <t>SO3104094</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2959171</t>
+          <t>SO3089422</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2941164</t>
+          <t>SO3093427</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2938974</t>
+          <t>SO3096169</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2985765</t>
+          <t>SO3089295</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2996685</t>
+          <t>SO3116580</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2846385</t>
+          <t>SO3132989</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2949034</t>
+          <t>SO3089219</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2940224</t>
+          <t>SO3103975</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2965731</t>
+          <t>SO3116421</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2966067</t>
+          <t>SO3093816</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2896461</t>
+          <t>SO3130225</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2936593</t>
+          <t>SO3116554</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2937417</t>
+          <t>SO3090537</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2947489</t>
+          <t>SO3122218</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2878068</t>
+          <t>SO3110264</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2967976</t>
+          <t>SO3113664</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2998507</t>
+          <t>SO3093686</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2882845</t>
+          <t>SO3109420</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2909431</t>
+          <t>SO3089466</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2928372</t>
+          <t>SO3095047</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2956960</t>
+          <t>SO3091268</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2961462</t>
+          <t>SO3095242</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2939849</t>
+          <t>SO3086017</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2899045</t>
+          <t>SO3087116</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2987856</t>
+          <t>SO3097838</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2983626</t>
+          <t>SO3079873</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2996648</t>
+          <t>SO3083773</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2993149</t>
+          <t>SO3125977</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2883142</t>
+          <t>SO3092981</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2998914</t>
+          <t>SO3131795</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2937131</t>
+          <t>SO3086019</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2964686</t>
+          <t>SO3094848</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2986407</t>
+          <t>SO3096345</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2966670</t>
+          <t>SO3142622</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2994356</t>
+          <t>SO3091887</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2996208</t>
+          <t>SO3083618</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2962821</t>
+          <t>SO3100813</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2884774</t>
+          <t>SO3106676</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2954085</t>
+          <t>SO3126787</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2952748</t>
+          <t>SO3092677</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2881716</t>
+          <t>SO3109994</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2965819</t>
+          <t>SO3005578</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2904845</t>
+          <t>SO3086618</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2933647</t>
+          <t>SO3126460</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2932771</t>
+          <t>SO3117981</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2965525</t>
+          <t>SO3130732</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2929580</t>
+          <t>SO3099103</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2935517</t>
+          <t>SO3105676</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2967536</t>
+          <t>SO3108915</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2879375</t>
+          <t>SO3097595</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2941936</t>
+          <t>SO3090034</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2880203</t>
+          <t>SO3089328</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2878603</t>
+          <t>SO3125774</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2943744</t>
+          <t>SO3125062</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2938222</t>
+          <t>SO3056800</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2888478</t>
+          <t>SO3124484</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2965834</t>
+          <t>SO3108330</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2931533</t>
+          <t>SO3117697</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2933632</t>
+          <t>SO3086884</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2938159</t>
+          <t>SO3088321</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2895915</t>
+          <t>SO3136405</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2894446</t>
+          <t>SO3123828</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2910809</t>
+          <t>SO3105078</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2879753</t>
+          <t>SO3081852</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2991834</t>
+          <t>SO2273939</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2975435</t>
+          <t>SO3097721</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2882857</t>
+          <t>SO3104062</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2908852</t>
+          <t>SO3089608</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2882029</t>
+          <t>SO3131874</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2880414</t>
+          <t>SO3102372</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2878359</t>
+          <t>SO3092440</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2877912</t>
+          <t>SO3088740</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2877930</t>
+          <t>SO3103036</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2877922</t>
+          <t>SO3027750</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2882279</t>
+          <t>SO3095062</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2966238</t>
+          <t>SO3085556</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2883192</t>
+          <t>SO3088860</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2877944</t>
+          <t>SO3100333</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2878032</t>
+          <t>SO3081128</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2878034</t>
+          <t>SO3099255</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2878109</t>
+          <t>SO3099296</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2878312</t>
+          <t>SO3091051</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2878304</t>
+          <t>SO3089817</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2883193</t>
+          <t>SO3121491</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2878967</t>
+          <t>SO3089258</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2878980</t>
+          <t>SO3088102</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2879177</t>
+          <t>SO3089311</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2879358</t>
+          <t>SO3100819</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2879217</t>
+          <t>SO3107928</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2879303</t>
+          <t>SO3097750</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2879360</t>
+          <t>SO3091267</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2879575</t>
+          <t>SO3090819</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2879425</t>
+          <t>SO3085054</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2879448</t>
+          <t>SO3101928</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2879546</t>
+          <t>SO3087685</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2879586</t>
+          <t>SO3088903</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2879686</t>
+          <t>SO3094670</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2879674</t>
+          <t>SO3121475</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2963735</t>
+          <t>SO3134499</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2880060</t>
+          <t>SO3100941</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2880091</t>
+          <t>SO3051653</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2880127</t>
+          <t>SO3081094</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2880438</t>
+          <t>SO3122403</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2880501</t>
+          <t>SO3085435</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2904868</t>
+          <t>SO3112333</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2880546</t>
+          <t>SO3130807</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2963954</t>
+          <t>SO3088964</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2880954</t>
+          <t>SO3111349</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2881476</t>
+          <t>SO3093597</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2881141</t>
+          <t>SO3086615</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2952381</t>
+          <t>SO3087326</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2881197</t>
+          <t>SO3088345</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2881626</t>
+          <t>SO3084874</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2881537</t>
+          <t>SO3089080</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2881648</t>
+          <t>SO3149646</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2883652</t>
+          <t>SO3085937</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2881910</t>
+          <t>SO3145360</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2899724</t>
+          <t>SO3134414</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2881861</t>
+          <t>SO3110148</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2882359</t>
+          <t>SO3093174</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2882061</t>
+          <t>SO3122163</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2882079</t>
+          <t>SO3086197</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2882080</t>
+          <t>SO3146158</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2974761</t>
+          <t>SO3141009</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2882146</t>
+          <t>SO3094672</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2882211</t>
+          <t>SO3084733</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2882233</t>
+          <t>SO3109864</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2882376</t>
+          <t>SO3070289</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2888254</t>
+          <t>SO3099297</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2885064</t>
+          <t>SO3129468</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2882447</t>
+          <t>SO3140872</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2882408</t>
+          <t>SO3141077</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2882571</t>
+          <t>SO3112566</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2882623</t>
+          <t>SO3143444</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2882741</t>
+          <t>SO3099616</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2882988</t>
+          <t>SO3082638</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2882987</t>
+          <t>SO3087483</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2882950</t>
+          <t>SO3085723</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2883007</t>
+          <t>SO3087558</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2883129</t>
+          <t>SO3145124</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2883212</t>
+          <t>SO3073207</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2883598</t>
+          <t>SO3106185</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2897723</t>
+          <t>SO3086597</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2883505</t>
+          <t>SO3074259</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2967891</t>
+          <t>SO3079181</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2963878</t>
+          <t>SO3081585</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2883504</t>
+          <t>SO3085140</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO3001722</t>
+          <t>SO3099158</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2883817</t>
+          <t>SO3116749</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2883906</t>
+          <t>SO3079118</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2996470</t>
+          <t>SO3087419</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2950225</t>
+          <t>SO3086916</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2884107</t>
+          <t>SO3116689</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2884151</t>
+          <t>SO3128474</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2884205</t>
+          <t>SO3114599</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2884280</t>
+          <t>SO3098691</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2884434</t>
+          <t>SO3088803</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2884506</t>
+          <t>SO3087489</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2884619</t>
+          <t>SO3083283</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2886579</t>
+          <t>SO3077227</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2884826</t>
+          <t>SO3081304</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2885190</t>
+          <t>SO3078072</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2885952</t>
+          <t>SO3084758</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2885178</t>
+          <t>SO3077404</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2885224</t>
+          <t>SO3077406</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2885209</t>
+          <t>SO3094876</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2885367</t>
+          <t>SO3078842</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2885386</t>
+          <t>SO3085698</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2885505</t>
+          <t>SO3080174</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2885531</t>
+          <t>SO3077736</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2885577</t>
+          <t>SO3130059</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2885608</t>
+          <t>SO3077756</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2946841</t>
+          <t>SO3077728</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2885769</t>
+          <t>SO3077809</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2885821</t>
+          <t>SO3078097</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2887907</t>
+          <t>SO3077897</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2885933</t>
+          <t>SO3077913</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2885896</t>
+          <t>SO3077941</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2885920</t>
+          <t>SO3077981</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2885986</t>
+          <t>SO3078020</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2976876</t>
+          <t>SO3078649</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2886037</t>
+          <t>SO3078087</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2886233</t>
+          <t>SO3078054</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2886249</t>
+          <t>SO3085345</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2886288</t>
+          <t>SO3078181</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2969767</t>
+          <t>SO3078191</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2935394</t>
+          <t>SO3088184</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2930310</t>
+          <t>SO3078232</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2886626</t>
+          <t>SO3078258</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2887056</t>
+          <t>SO3078286</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2887157</t>
+          <t>SO3078346</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2887198</t>
+          <t>SO3078365</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2887347</t>
+          <t>SO3078384</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2887368</t>
+          <t>SO3078408</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2932192</t>
+          <t>SO3078486</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2887576</t>
+          <t>SO3078463</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2887575</t>
+          <t>SO3078573</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2887803</t>
+          <t>SO3078710</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2983350</t>
+          <t>SO3078717</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2887929</t>
+          <t>SO3078825</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2887943</t>
+          <t>SO3078917</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2888080</t>
+          <t>SO3078954</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2888134</t>
+          <t>SO3078935</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2888160</t>
+          <t>SO3078960</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2938290</t>
+          <t>SO3079016</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2989929</t>
+          <t>SO3079003</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2888369</t>
+          <t>SO3079087</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2888479</t>
+          <t>SO3079191</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2888554</t>
+          <t>SO3079153</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2968693</t>
+          <t>SO3079245</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2888854</t>
+          <t>SO3079317</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2964513</t>
+          <t>SO3079380</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2888973</t>
+          <t>SO3079449</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2888948</t>
+          <t>SO3079458</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2992573</t>
+          <t>SO3079470</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2889106</t>
+          <t>SO3116690</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2968411</t>
+          <t>SO3079694</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2889218</t>
+          <t>SO3145896</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2889553</t>
+          <t>SO3079748</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2894800</t>
+          <t>SO3080159</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2889598</t>
+          <t>SO3079773</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2890711</t>
+          <t>SO3079793</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2934508</t>
+          <t>SO3079921</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2938731</t>
+          <t>SO3079917</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2889995</t>
+          <t>SO3079959</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2890253</t>
+          <t>SO3079971</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2952735</t>
+          <t>SO3080505</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2890746</t>
+          <t>SO3080149</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2890762</t>
+          <t>SO3080147</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2891095</t>
+          <t>SO3080180</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2891205</t>
+          <t>SO3080227</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2891299</t>
+          <t>SO3080254</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2891792</t>
+          <t>SO3093792</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2892356</t>
+          <t>SO3128427</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2892330</t>
+          <t>SO3080501</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2892780</t>
+          <t>SO3085555</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2892867</t>
+          <t>SO3080405</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2893228</t>
+          <t>SO3080446</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2893345</t>
+          <t>SO3080433</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2893415</t>
+          <t>SO3083217</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2893461</t>
+          <t>SO3080531</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2893817</t>
+          <t>SO3080509</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2897344</t>
+          <t>SO3080626</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2894096</t>
+          <t>SO3080594</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2894142</t>
+          <t>SO3080596</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2894224</t>
+          <t>SO3080628</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2894249</t>
+          <t>SO3080680</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2894492</t>
+          <t>SO3081089</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2899100</t>
+          <t>SO3081169</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2894827</t>
+          <t>SO3080738</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2894782</t>
+          <t>SO3080684</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2894777</t>
+          <t>SO3080828</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2895172</t>
+          <t>SO3080835</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2895143</t>
+          <t>SO3080821</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2952491</t>
+          <t>SO3080852</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2994483</t>
+          <t>SO3080952</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2895191</t>
+          <t>SO3083926</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2895279</t>
+          <t>SO3081263</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2895490</t>
+          <t>SO3080988</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2895572</t>
+          <t>SO3081011</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2895571</t>
+          <t>SO3081265</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2897631</t>
+          <t>SO3081088</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2896328</t>
+          <t>SO3081093</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2936046</t>
+          <t>SO3093312</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2895847</t>
+          <t>SO3081198</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2895833</t>
+          <t>SO3081193</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2897339</t>
+          <t>SO3081114</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2895879</t>
+          <t>SO3081344</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2895951</t>
+          <t>SO3081752</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2895955</t>
+          <t>SO3081479</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2896091</t>
+          <t>SO3087550</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2896194</t>
+          <t>SO3081551</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2896267</t>
+          <t>SO3081619</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2896363</t>
+          <t>SO3081596</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2896330</t>
+          <t>SO3081663</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2896329</t>
+          <t>SO3081599</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2896347</t>
+          <t>SO3081630</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2896503</t>
+          <t>SO3081705</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2896502</t>
+          <t>SO3081632</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2948086</t>
+          <t>SO3081766</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2896622</t>
+          <t>SO3081803</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2897128</t>
+          <t>SO3081782</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2896641</t>
+          <t>SO3081918</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2896652</t>
+          <t>SO3081901</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2998778</t>
+          <t>SO3082185</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2896639</t>
+          <t>SO3081956</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2896635</t>
+          <t>SO3081978</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2962564</t>
+          <t>SO3082006</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2896706</t>
+          <t>SO3082093</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2896750</t>
+          <t>SO3082079</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2896797</t>
+          <t>SO3082078</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2896814</t>
+          <t>SO3082279</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2896859</t>
+          <t>SO3082229</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2896858</t>
+          <t>SO3085477</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2896832</t>
+          <t>SO3086093</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2896833</t>
+          <t>SO3082304</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2896889</t>
+          <t>SO3082384</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2985855</t>
+          <t>SO3082331</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2896996</t>
+          <t>SO3082363</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2896994</t>
+          <t>SO3082377</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2897175</t>
+          <t>SO3082445</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2897063</t>
+          <t>SO3082511</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2897114</t>
+          <t>SO3082632</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2898654</t>
+          <t>SO3082680</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2904736</t>
+          <t>SO3082710</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2897258</t>
+          <t>SO3082779</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2897276</t>
+          <t>SO3082817</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2897318</t>
+          <t>SO3082835</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2897340</t>
+          <t>SO3082870</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2897338</t>
+          <t>SO3083042</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2897336</t>
+          <t>SO3082991</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2897364</t>
+          <t>SO3083122</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2949407</t>
+          <t>SO3083034</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2897478</t>
+          <t>SO3083796</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2897591</t>
+          <t>SO3083166</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2897544</t>
+          <t>SO3083344</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2897541</t>
+          <t>SO3083216</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2897556</t>
+          <t>SO3083240</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2897594</t>
+          <t>SO3083327</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2897628</t>
+          <t>SO3083338</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2897716</t>
+          <t>SO3083227</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2897626</t>
+          <t>SO3083302</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2897714</t>
+          <t>SO3083925</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2897823</t>
+          <t>SO3083299</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2909379</t>
+          <t>SO3083661</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2897832</t>
+          <t>SO3083321</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2897869</t>
+          <t>SO3083370</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2897933</t>
+          <t>SO3083333</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2897970</t>
+          <t>SO3083387</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2897950</t>
+          <t>SO3083396</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2897973</t>
+          <t>SO3083399</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2897952</t>
+          <t>SO3083433</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2898005</t>
+          <t>SO3083514</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2897989</t>
+          <t>SO3083515</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2898327</t>
+          <t>SO3083479</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2898051</t>
+          <t>SO3083471</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2983268</t>
+          <t>SO3083490</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2898135</t>
+          <t>SO3083576</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2898160</t>
+          <t>SO3083540</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2942340</t>
+          <t>SO3083550</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2956438</t>
+          <t>SO3083577</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2898229</t>
+          <t>SO3083587</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2898186</t>
+          <t>SO3083564</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2898208</t>
+          <t>SO3083586</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2898210</t>
+          <t>SO3083622</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2898206</t>
+          <t>SO3083585</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2898265</t>
+          <t>SO3083593</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2898296</t>
+          <t>SO3083624</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2898349</t>
+          <t>SO3083982</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2898324</t>
+          <t>SO3083642</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2898392</t>
+          <t>SO3083801</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2898391</t>
+          <t>SO3083742</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2898401</t>
+          <t>SO3083730</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2898364</t>
+          <t>SO3083866</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2898423</t>
+          <t>SO3083770</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2898422</t>
+          <t>SO3083789</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2898448</t>
+          <t>SO3083792</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2898484</t>
+          <t>SO3083842</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2939110</t>
+          <t>SO3083891</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2898513</t>
+          <t>SO3130520</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2898492</t>
+          <t>SO3083919</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2898538</t>
+          <t>SO3083963</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2898580</t>
+          <t>SO3084057</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2898485</t>
+          <t>SO3084107</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2898671</t>
+          <t>SO3084108</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2898739</t>
+          <t>SO3084227</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2898740</t>
+          <t>SO3084239</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2898801</t>
+          <t>SO3084249</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2898834</t>
+          <t>SO3091057</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2898836</t>
+          <t>SO3084366</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2899095</t>
+          <t>SO3084393</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2898842</t>
+          <t>SO3097980</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2898881</t>
+          <t>SO3084405</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2898921</t>
+          <t>SO3133587</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2898922</t>
+          <t>SO3085719</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2899037</t>
+          <t>SO3084668</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2898966</t>
+          <t>SO3084722</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2899006</t>
+          <t>SO3084776</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2986717</t>
+          <t>SO3099156</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2899147</t>
+          <t>SO3084887</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2899167</t>
+          <t>SO3086929</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2899245</t>
+          <t>SO3085051</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2899248</t>
+          <t>SO3084971</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2899264</t>
+          <t>SO3084907</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2899444</t>
+          <t>SO3084926</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2899416</t>
+          <t>SO3084945</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2899451</t>
+          <t>SO3084949</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2899521</t>
+          <t>SO3084970</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2951120</t>
+          <t>SO3084991</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2899518</t>
+          <t>SO3085870</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2899557</t>
+          <t>SO3085013</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2899576</t>
+          <t>SO3085050</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2899591</t>
+          <t>SO3085000</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2899683</t>
+          <t>SO3085089</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2900064</t>
+          <t>SO3086940</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2899662</t>
+          <t>SO3085087</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2899687</t>
+          <t>SO3085114</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2899650</t>
+          <t>SO3085197</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2899725</t>
+          <t>SO3085230</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2899766</t>
+          <t>SO3085196</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2899743</t>
+          <t>SO3085164</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2899803</t>
+          <t>SO3085168</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2899862</t>
+          <t>SO3085195</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2899886</t>
+          <t>SO3085220</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2899882</t>
+          <t>SO3085224</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2900505</t>
+          <t>SO3094961</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2936385</t>
+          <t>SO3085376</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2941614</t>
+          <t>SO3102900</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2942754</t>
+          <t>SO3120549</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2909628</t>
+          <t>SO3085434</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2951130</t>
+          <t>SO3085480</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2946740</t>
+          <t>SO3085464</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2904674</t>
+          <t>SO3085503</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2904673</t>
+          <t>SO3085526</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2904706</t>
+          <t>SO3086367</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2904658</t>
+          <t>SO3087243</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2904732</t>
+          <t>SO3085585</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2904702</t>
+          <t>SO3085554</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2904810</t>
+          <t>SO3085693</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2904851</t>
+          <t>SO3085586</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2904769</t>
+          <t>SO3085701</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2904833</t>
+          <t>SO3085960</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2904832</t>
+          <t>SO3087075</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2904842</t>
+          <t>SO3085684</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2951711</t>
+          <t>SO3085758</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2904937</t>
+          <t>SO3085699</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2904852</t>
+          <t>SO3085692</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2904930</t>
+          <t>SO3085700</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2904958</t>
+          <t>SO3085725</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2904985</t>
+          <t>SO3085782</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2905293</t>
+          <t>SO3085720</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2908999</t>
+          <t>SO3085811</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2910790</t>
+          <t>SO3085702</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2910969</t>
+          <t>SO3093008</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2909592</t>
+          <t>SO3094533</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2940434</t>
+          <t>SO3085787</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2974663</t>
+          <t>SO3085871</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2946242</t>
+          <t>SO3085804</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2936362</t>
+          <t>SO3085803</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2909334</t>
+          <t>SO3085823</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO3007177</t>
+          <t>SO3085855</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2908564</t>
+          <t>SO3086054</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2908563</t>
+          <t>SO3085884</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2908556</t>
+          <t>SO3085891</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2908582</t>
+          <t>SO3086477</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2908614</t>
+          <t>SO3085914</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2908611</t>
+          <t>SO3085921</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2908662</t>
+          <t>SO3085962</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2908695</t>
+          <t>SO3085975</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2908677</t>
+          <t>SO3086543</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2908681</t>
+          <t>SO3085957</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2908696</t>
+          <t>SO3085950</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2908789</t>
+          <t>SO3089894</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2908760</t>
+          <t>SO3085978</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2908694</t>
+          <t>SO3086503</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2908707</t>
+          <t>SO3085948</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2908773</t>
+          <t>SO3086010</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2908771</t>
+          <t>SO3086011</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2908739</t>
+          <t>SO3086021</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2909072</t>
+          <t>SO3086094</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2908793</t>
+          <t>SO3086099</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2908871</t>
+          <t>SO3086118</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2908873</t>
+          <t>SO3086117</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2908938</t>
+          <t>SO3086411</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2908939</t>
+          <t>SO3086119</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2975049</t>
+          <t>SO3086160</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2908996</t>
+          <t>SO3086162</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2910120</t>
+          <t>SO3086265</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2909254</t>
+          <t>SO3086236</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2909250</t>
+          <t>SO3086214</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2909253</t>
+          <t>SO3086204</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2909541</t>
+          <t>SO3086240</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2909299</t>
+          <t>SO3086373</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2909333</t>
+          <t>SO3088056</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2909347</t>
+          <t>SO3088154</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2980331</t>
+          <t>SO3086287</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2909429</t>
+          <t>SO3086289</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2909449</t>
+          <t>SO3086264</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2909571</t>
+          <t>SO3086326</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2909569</t>
+          <t>SO3086338</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2909591</t>
+          <t>SO3086337</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2909627</t>
+          <t>SO3087015</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2909721</t>
+          <t>SO3086339</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2909740</t>
+          <t>SO3086343</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2973109</t>
+          <t>SO3086368</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2910057</t>
+          <t>SO3086378</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2910257</t>
+          <t>SO3086393</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2911203</t>
+          <t>SO3086386</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2910234</t>
+          <t>SO3086410</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2910306</t>
+          <t>SO3086417</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2910348</t>
+          <t>SO3086424</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2910401</t>
+          <t>SO3086423</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2910338</t>
+          <t>SO3086466</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2910448</t>
+          <t>SO3086478</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2910435</t>
+          <t>SO3088194</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2910434</t>
+          <t>SO3086416</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2910443</t>
+          <t>SO3086444</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2910519</t>
+          <t>SO3086578</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2910517</t>
+          <t>SO3086396</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2910564</t>
+          <t>SO3088603</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2910565</t>
+          <t>SO3086484</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2910637</t>
+          <t>SO3086550</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2910610</t>
+          <t>SO3093489</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2910675</t>
+          <t>SO3086611</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2910754</t>
+          <t>SO3089601</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2940455</t>
+          <t>SO3086623</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2910806</t>
+          <t>SO3086590</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2910883</t>
+          <t>SO3086654</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2910953</t>
+          <t>SO3086767</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2910909</t>
+          <t>SO3086943</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2910986</t>
+          <t>SO3086804</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2910996</t>
+          <t>SO3087334</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2911033</t>
+          <t>SO3086816</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2911125</t>
+          <t>SO3087291</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2911154</t>
+          <t>SO3086776</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2911124</t>
+          <t>SO3086862</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2911191</t>
+          <t>SO3086872</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2911188</t>
+          <t>SO3086842</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2911187</t>
+          <t>SO3086885</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2911355</t>
+          <t>SO3086875</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2911285</t>
+          <t>SO3086883</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2911322</t>
+          <t>SO3087121</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2911348</t>
+          <t>SO3087130</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2911478</t>
+          <t>SO3087742</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2911463</t>
+          <t>SO3086945</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2911560</t>
+          <t>SO3086965</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2911568</t>
+          <t>SO3086974</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2911583</t>
+          <t>SO3087031</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2946125</t>
+          <t>SO3087032</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO3005570</t>
+          <t>SO3087912</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2942549</t>
+          <t>SO3087142</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2999550</t>
+          <t>SO3087109</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2945872</t>
+          <t>SO3093927</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2955246</t>
+          <t>SO3088772</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2963542</t>
+          <t>SO3087177</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2938773</t>
+          <t>SO3087112</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2968893</t>
+          <t>SO3087178</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2915991</t>
+          <t>SO3087179</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2978666</t>
+          <t>SO3087193</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2947877</t>
+          <t>SO3087274</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2962949</t>
+          <t>SO3090155</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2946655</t>
+          <t>SO3103560</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2991823</t>
+          <t>SO3087210</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2977013</t>
+          <t>SO3087277</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2969167</t>
+          <t>SO3087267</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2954190</t>
+          <t>SO3087289</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2956869</t>
+          <t>SO3087288</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2967538</t>
+          <t>SO3087325</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2962127</t>
+          <t>SO3087960</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2933476</t>
+          <t>SO3087363</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2994115</t>
+          <t>SO3087335</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2928560</t>
+          <t>SO3087385</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2931907</t>
+          <t>SO3087384</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2961738</t>
+          <t>SO3089159</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2929357</t>
+          <t>SO3087388</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2934742</t>
+          <t>SO3087410</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2924868</t>
+          <t>SO3087433</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2967951</t>
+          <t>SO3089003</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2922445</t>
+          <t>SO3087557</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2922471</t>
+          <t>SO3087455</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2930783</t>
+          <t>SO3087501</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2932995</t>
+          <t>SO3087498</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2938199</t>
+          <t>SO3087540</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2980434</t>
+          <t>SO3087514</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2951014</t>
+          <t>SO3144773</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2923171</t>
+          <t>SO3087592</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2927879</t>
+          <t>SO3087589</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2935593</t>
+          <t>SO3087590</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2924299</t>
+          <t>SO3087556</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2924527</t>
+          <t>SO3094682</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2933025</t>
+          <t>SO3087610</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2945623</t>
+          <t>SO3087559</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2958093</t>
+          <t>SO3087607</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2925006</t>
+          <t>SO3087609</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2925285</t>
+          <t>SO3087635</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2925468</t>
+          <t>SO3087812</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2925516</t>
+          <t>SO3087627</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2926001</t>
+          <t>SO3087647</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2967116</t>
+          <t>SO3087624</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2926507</t>
+          <t>SO3087631</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2934676</t>
+          <t>SO3087707</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2930298</t>
+          <t>SO3088009</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2985593</t>
+          <t>SO3087663</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2950693</t>
+          <t>SO3087741</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2926692</t>
+          <t>SO3087727</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2926717</t>
+          <t>SO3087771</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2926877</t>
+          <t>SO3087772</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2962526</t>
+          <t>SO3087761</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2928311</t>
+          <t>SO3087758</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2938841</t>
+          <t>SO3087792</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2927157</t>
+          <t>SO3087867</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2927284</t>
+          <t>SO3089068</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2927359</t>
+          <t>SO3087871</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2927732</t>
+          <t>SO3087810</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2928116</t>
+          <t>SO3087814</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2929540</t>
+          <t>SO3087828</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2927892</t>
+          <t>SO3089838</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2932928</t>
+          <t>SO3089095</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2928071</t>
+          <t>SO3087861</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2928171</t>
+          <t>SO3087856</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2930847</t>
+          <t>SO3093749</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2928450</t>
+          <t>SO3087922</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2935531</t>
+          <t>SO3089494</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2928610</t>
+          <t>SO3087887</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO3006886</t>
+          <t>SO3087885</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2928681</t>
+          <t>SO3087892</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2928798</t>
+          <t>SO3087893</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2928680</t>
+          <t>SO3088509</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2928945</t>
+          <t>SO3087963</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2928994</t>
+          <t>SO3088171</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2929023</t>
+          <t>SO3087981</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2929279</t>
+          <t>SO3087973</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2929244</t>
+          <t>SO3088195</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2929310</t>
+          <t>SO3089393</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2929401</t>
+          <t>SO3088039</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2929424</t>
+          <t>SO3088010</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2930241</t>
+          <t>SO3088022</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2929696</t>
+          <t>SO3088043</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2929512</t>
+          <t>SO3088042</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2929577</t>
+          <t>SO3088242</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2929631</t>
+          <t>SO3088123</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2929651</t>
+          <t>SO3088074</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2929697</t>
+          <t>SO3088062</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2929676</t>
+          <t>SO3088922</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2929699</t>
+          <t>SO3088136</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2929877</t>
+          <t>SO3088115</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2931378</t>
+          <t>SO3088300</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2929857</t>
+          <t>SO3088114</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2932548</t>
+          <t>SO3088196</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2938540</t>
+          <t>SO3088240</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2929975</t>
+          <t>SO3088185</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2930072</t>
+          <t>SO3088143</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2930144</t>
+          <t>SO3088243</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2930145</t>
+          <t>SO3088269</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2930330</t>
+          <t>SO3088642</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2930964</t>
+          <t>SO3091436</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2930495</t>
+          <t>SO3088322</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2930574</t>
+          <t>SO3088336</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2930656</t>
+          <t>SO3088323</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2930701</t>
+          <t>SO3088348</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2930723</t>
+          <t>SO3088405</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2930835</t>
+          <t>SO3088420</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2930849</t>
+          <t>SO3088421</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2930841</t>
+          <t>SO3088475</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2930848</t>
+          <t>SO3088434</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2930852</t>
+          <t>SO3088473</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2930908</t>
+          <t>SO3094571</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2933117</t>
+          <t>SO3088478</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2931056</t>
+          <t>SO3088521</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2931070</t>
+          <t>SO3090367</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2930993</t>
+          <t>SO3088559</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2931024</t>
+          <t>SO3088584</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2947125</t>
+          <t>SO3088511</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2931087</t>
+          <t>SO3088536</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2931074</t>
+          <t>SO3088841</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2947054</t>
+          <t>SO3088582</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2936989</t>
+          <t>SO3108466</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2931185</t>
+          <t>SO3088708</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2931172</t>
+          <t>SO3088722</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2931186</t>
+          <t>SO3088724</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2931196</t>
+          <t>SO3088714</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2931195</t>
+          <t>SO3088723</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2931229</t>
+          <t>SO3105496</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2931270</t>
+          <t>SO3088775</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2961363</t>
+          <t>SO3088819</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2931360</t>
+          <t>SO3088865</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2931301</t>
+          <t>SO3088907</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2931292</t>
+          <t>SO3088840</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2931403</t>
+          <t>SO3090153</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2931346</t>
+          <t>SO3088906</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2931361</t>
+          <t>SO3088940</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2931393</t>
+          <t>SO3088986</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2931477</t>
+          <t>SO3090428</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2931426</t>
+          <t>SO3090809</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2931450</t>
+          <t>SO3089037</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2931449</t>
+          <t>SO3089040</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2931432</t>
+          <t>SO3089021</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2931527</t>
+          <t>SO3089655</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2931552</t>
+          <t>SO3089072</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2931532</t>
+          <t>SO3089130</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2989030</t>
+          <t>SO3093353</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2931582</t>
+          <t>SO3089128</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2931619</t>
+          <t>SO3089457</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2932528</t>
+          <t>SO3089180</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2931681</t>
+          <t>SO3089144</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2931696</t>
+          <t>SO3089179</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2931712</t>
+          <t>SO3089158</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2932796</t>
+          <t>SO3089161</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2931809</t>
+          <t>SO3089202</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2931864</t>
+          <t>SO3089245</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2931808</t>
+          <t>SO3089263</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2931830</t>
+          <t>SO3089292</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2931892</t>
+          <t>SO3089408</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2931903</t>
+          <t>SO3089921</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2932342</t>
+          <t>SO3089327</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2931951</t>
+          <t>SO3089796</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2964335</t>
+          <t>SO3092386</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2932002</t>
+          <t>SO3089365</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2931952</t>
+          <t>SO3089901</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2933171</t>
+          <t>SO3089392</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2932191</t>
+          <t>SO3089378</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2932201</t>
+          <t>SO3089355</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2932288</t>
+          <t>SO3089472</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2939816</t>
+          <t>SO3089432</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2965676</t>
+          <t>SO3089460</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2934583</t>
+          <t>SO3090086</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2933388</t>
+          <t>SO3089541</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2932536</t>
+          <t>SO3089503</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2932553</t>
+          <t>SO3089505</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2937304</t>
+          <t>SO3089553</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2932654</t>
+          <t>SO3089572</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2932710</t>
+          <t>SO3089575</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2932737</t>
+          <t>SO3094856</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2932732</t>
+          <t>SO3089635</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2932734</t>
+          <t>SO3089600</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2932748</t>
+          <t>SO3089637</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2932747</t>
+          <t>SO3089644</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2934524</t>
+          <t>SO3089777</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2933015</t>
+          <t>SO3089682</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2932808</t>
+          <t>SO3089701</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2932769</t>
+          <t>SO3089703</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2932810</t>
+          <t>SO3090039</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2932804</t>
+          <t>SO3089782</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2932877</t>
+          <t>SO3089824</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2932878</t>
+          <t>SO3089731</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2933016</t>
+          <t>SO3089734</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2989646</t>
+          <t>SO3089746</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2932853</t>
+          <t>SO3089810</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2932854</t>
+          <t>SO3091349</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2932876</t>
+          <t>SO3089778</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2932884</t>
+          <t>SO3089764</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2935103</t>
+          <t>SO3089783</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2932881</t>
+          <t>SO3089816</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2932893</t>
+          <t>SO3089798</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2933064</t>
+          <t>SO3089790</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2932955</t>
+          <t>SO3089789</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2933115</t>
+          <t>SO3090251</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2933051</t>
+          <t>SO3090010</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2933048</t>
+          <t>SO3090934</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2941872</t>
+          <t>SO3089779</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2933120</t>
+          <t>SO3089791</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2933212</t>
+          <t>SO3089827</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2933094</t>
+          <t>SO3089855</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2933119</t>
+          <t>SO3089794</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2933140</t>
+          <t>SO3089850</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2933163</t>
+          <t>SO3089858</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2933160</t>
+          <t>SO3089857</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2933147</t>
+          <t>SO3089884</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2953942</t>
+          <t>SO3089883</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2933172</t>
+          <t>SO3089874</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2933324</t>
+          <t>SO3089941</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2933192</t>
+          <t>SO3089875</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2933201</t>
+          <t>SO3095874</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2933353</t>
+          <t>SO3090026</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2933257</t>
+          <t>SO3089909</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2933258</t>
+          <t>SO3090085</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2933256</t>
+          <t>SO3089974</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2933318</t>
+          <t>SO3089924</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2933272</t>
+          <t>SO3089978</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2933389</t>
+          <t>SO3090038</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2933316</t>
+          <t>SO3090073</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2933304</t>
+          <t>SO3090060</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2933328</t>
+          <t>SO3090040</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2934413</t>
+          <t>SO3090515</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2933329</t>
+          <t>SO3090071</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2933373</t>
+          <t>SO3090076</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2936402</t>
+          <t>SO3090077</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2933419</t>
+          <t>SO3090088</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2933478</t>
+          <t>SO3090111</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2933554</t>
+          <t>SO3090146</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2933490</t>
+          <t>SO3090215</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2933501</t>
+          <t>SO3090211</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2933491</t>
+          <t>SO3090242</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2933514</t>
+          <t>SO3090250</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2933553</t>
+          <t>SO3090325</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2933556</t>
+          <t>SO3090607</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2933555</t>
+          <t>SO3090273</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2982888</t>
+          <t>SO3090285</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2933645</t>
+          <t>SO3137103</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2999150</t>
+          <t>SO3090313</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2935703</t>
+          <t>SO3090351</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2933628</t>
+          <t>SO3096326</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2933648</t>
+          <t>SO3090372</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2933710</t>
+          <t>SO3090366</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2933662</t>
+          <t>SO3090400</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2933709</t>
+          <t>SO3095887</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2933752</t>
+          <t>SO3090404</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2933784</t>
+          <t>SO3090410</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2933808</t>
+          <t>SO3090422</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2933896</t>
+          <t>SO3090500</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2933895</t>
+          <t>SO3090474</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2933929</t>
+          <t>SO3090489</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2937814</t>
+          <t>SO3091295</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2934266</t>
+          <t>SO3096286</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2934324</t>
+          <t>SO3090602</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2934323</t>
+          <t>SO3090618</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2934310</t>
+          <t>SO3092609</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2934303</t>
+          <t>SO3090411</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2934313</t>
+          <t>SO3090475</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2934354</t>
+          <t>SO3090478</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2934436</t>
+          <t>SO3090504</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2934416</t>
+          <t>SO3090548</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2936177</t>
+          <t>SO3090552</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2934434</t>
+          <t>SO3090736</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2934472</t>
+          <t>SO3090572</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2934485</t>
+          <t>SO3090589</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2963853</t>
+          <t>SO3090646</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2934570</t>
+          <t>SO3090690</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2934526</t>
+          <t>SO3093703</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2934556</t>
+          <t>SO3090727</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2934585</t>
+          <t>SO3090732</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2934617</t>
+          <t>SO3096205</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2934642</t>
+          <t>SO3090794</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2934582</t>
+          <t>SO3090804</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2935202</t>
+          <t>SO3090887</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2934587</t>
+          <t>SO3090904</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2934586</t>
+          <t>SO3090866</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2934710</t>
+          <t>SO3090893</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2934624</t>
+          <t>SO3090905</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2938809</t>
+          <t>SO3090925</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2934659</t>
+          <t>SO3090939</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2934625</t>
+          <t>SO3091293</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2934623</t>
+          <t>SO3090969</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2936221</t>
+          <t>SO3090965</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2934643</t>
+          <t>SO3091123</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2934677</t>
+          <t>SO3091053</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2934794</t>
+          <t>SO3091036</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2934681</t>
+          <t>SO3091084</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2934768</t>
+          <t>SO3091101</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2935515</t>
+          <t>SO3091160</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2934773</t>
+          <t>SO3091116</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2934844</t>
+          <t>SO3091143</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2937852</t>
+          <t>SO3091091</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2935076</t>
+          <t>SO3091115</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2934845</t>
+          <t>SO3091187</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2934949</t>
+          <t>SO3091141</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2935035</t>
+          <t>SO3091142</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2977034</t>
+          <t>SO3091159</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2934813</t>
+          <t>SO3091194</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2934804</t>
+          <t>SO3091195</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2938053</t>
+          <t>SO3091216</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2934911</t>
+          <t>SO3091193</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2934934</t>
+          <t>SO3091269</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2934892</t>
+          <t>SO3091305</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2934965</t>
+          <t>SO3091240</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2934899</t>
+          <t>SO3091266</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2934903</t>
+          <t>SO3091332</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2976442</t>
+          <t>SO3091318</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2935033</t>
+          <t>SO3091402</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2934951</t>
+          <t>SO3091338</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2935034</t>
+          <t>SO3091364</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2935003</t>
+          <t>SO3091365</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2935112</t>
+          <t>SO3091339</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2936729</t>
+          <t>SO3100365</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2935094</t>
+          <t>SO3091401</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2935017</t>
+          <t>SO3091465</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2935093</t>
+          <t>SO3091379</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2935075</t>
+          <t>SO3091382</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2935160</t>
+          <t>SO3091424</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2936742</t>
+          <t>SO3091429</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2935157</t>
+          <t>SO3091380</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2939517</t>
+          <t>SO3091449</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2935163</t>
+          <t>SO3091503</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2935173</t>
+          <t>SO3091679</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2935277</t>
+          <t>SO3091525</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2935274</t>
+          <t>SO3091641</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2935209</t>
+          <t>SO3093671</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2939395</t>
+          <t>SO3091578</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2935344</t>
+          <t>SO3091680</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2935221</t>
+          <t>SO3091601</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2935147</t>
+          <t>SO3091623</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2935290</t>
+          <t>SO3091808</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2935248</t>
+          <t>SO3091707</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2935289</t>
+          <t>SO3091703</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2935324</t>
+          <t>SO3092643</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2935355</t>
+          <t>SO3091867</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2935313</t>
+          <t>SO3091833</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2935310</t>
+          <t>SO3105075</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2936485</t>
+          <t>SO3091885</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2935640</t>
+          <t>SO3091943</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2935400</t>
+          <t>SO3091981</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2935498</t>
+          <t>SO3091940</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2935417</t>
+          <t>SO3092052</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2935439</t>
+          <t>SO3092185</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2935411</t>
+          <t>SO3092405</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2936764</t>
+          <t>SO3092083</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2935514</t>
+          <t>SO3092088</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2935461</t>
+          <t>SO3092086</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2935491</t>
+          <t>SO3092127</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2935506</t>
+          <t>SO3092128</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2937090</t>
+          <t>SO3092123</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2935533</t>
+          <t>SO3092125</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2935530</t>
+          <t>SO3092883</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2935526</t>
+          <t>SO3092174</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2935592</t>
+          <t>SO3092208</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2935941</t>
+          <t>SO3092207</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2935615</t>
+          <t>SO3092891</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2935580</t>
+          <t>SO3092277</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2935667</t>
+          <t>SO3092189</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2935625</t>
+          <t>SO3092205</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2935594</t>
+          <t>SO3092243</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2935601</t>
+          <t>SO3108753</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2935614</t>
+          <t>SO3092213</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2935624</t>
+          <t>SO3092241</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2935668</t>
+          <t>SO3092259</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2935655</t>
+          <t>SO3092278</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2935692</t>
+          <t>SO3092238</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2935693</t>
+          <t>SO3092364</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2935710</t>
+          <t>SO3092316</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2937663</t>
+          <t>SO3092348</t>
         </is>
       </c>
     </row>
